--- a/biology/Médecine/Charles-Jacques_Saillant/Charles-Jacques_Saillant.xlsx
+++ b/biology/Médecine/Charles-Jacques_Saillant/Charles-Jacques_Saillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Jacques Saillant, né le 8 avril 1747 à Paris et mort le 6 août 1814 à Villiers-le-Bel, est un médecin français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d’un libraire parisien, Saillant, spécialisé en sphygmologie, était membre de la Faculté de médecine de Paris et de la Société royale de médecine. Il s’est intéressé à l’ergotisme, alors nommé « feu de Saint-Antoine » et co-publié, avec Henri-Alexandre Tessier et Jean-Jacques Paulet, des « Recherches sur le feu Saint-Antoine » dans les Mémoires de l’Académie de médecine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d’un libraire parisien, Saillant, spécialisé en sphygmologie, était membre de la Faculté de médecine de Paris et de la Société royale de médecine. Il s’est intéressé à l’ergotisme, alors nommé « feu de Saint-Antoine » et co-publié, avec Henri-Alexandre Tessier et Jean-Jacques Paulet, des « Recherches sur le feu Saint-Antoine » dans les Mémoires de l’Académie de médecine.
 Pendant la Révolution, il devint prêtre et fut ordonné par les Constitutionnels. Il fut fait curé de Villiers-le-Bel, assista au concile de 1801 comme député du clergé de Versailles. Il a publié un certain nombre d’ouvrages qui se ressentent tous du jansénisme.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire historique sur la maladie singulière de la veuve Melin, 1776, in-12, 45 p.
 Le Chrétien instruit de sa religion, de l’Écriture sainte et de l’histoire de l’Église et particulièrement de l’église de France, ou Journée d’un chrétien pour l’année 1797, in-18.M. de Boulogne prémunit ses lecteurs contre cette compilation, qui reflète, selon lui, les préjugés de l’auteur, dans les Annales catholiques, t. III ; p. 127.
